--- a/artfynd/A 54303-2022 artfynd.xlsx
+++ b/artfynd/A 54303-2022 artfynd.xlsx
@@ -1726,7 +1726,7 @@
         <v>130978740</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>130989062</v>
       </c>
       <c r="B12" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>130977946</v>
       </c>
       <c r="B13" t="n">
-        <v>57072</v>
+        <v>57076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>130978211</v>
       </c>
       <c r="B14" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>130978116</v>
       </c>
       <c r="B15" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/artfynd/A 54303-2022 artfynd.xlsx
+++ b/artfynd/A 54303-2022 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,6 +2314,248 @@
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131253288</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Ågrenafallsvägen, Rankemossen L, Nrk</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>471316</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6543168</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Laxå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Skagershult</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Spårlöpor i snön</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131253282</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>SV Rankemossen, Stora Rankemossen, Nrk</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>471273</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6543342</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Laxå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Skagershult</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Spårlöpor i snön.</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
